--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2022-2023\TIMES_IERP_SIMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Pulpit\IERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29765EE1-FA09-43B2-BA61-50D1FC85EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" tabRatio="901" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -26,7 +25,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,14 +43,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,13 +356,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,12 +772,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1F2E6007-9D90-4FAC-BD93-63283AEDF5E0}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -797,12 +796,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{86F89C21-AD8B-4F76-B17F-5DFAE387975A}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +820,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1147,9 +1146,6 @@
     <t>\I: Unit</t>
   </si>
   <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
     <t>PJ/a</t>
   </si>
   <si>
@@ -1181,9 +1177,6 @@
   </si>
   <si>
     <t>PJ / a / GWe</t>
-  </si>
-  <si>
-    <t>hours / 8760 hours</t>
   </si>
   <si>
     <t>PLN / kWe</t>
@@ -1306,11 +1299,29 @@
   <si>
     <t>Emission Factor [kt/PJ]</t>
   </si>
+  <si>
+    <t>hours working / 8760 hours</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>PLN/GJ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
@@ -2856,18 +2867,6 @@
     <xf numFmtId="9" fontId="5" fillId="26" borderId="0" xfId="340" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="28" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2882,381 +2881,393 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="27" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="33" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="27" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="32" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="341">
-    <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - akcent 1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - akcent 1 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - akcent 1 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - akcent 1 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - akcent 1 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - akcent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - akcent 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - akcent 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - akcent 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - akcent 2 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - akcent 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - akcent 2 7" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - akcent 2 8" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - akcent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - akcent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - akcent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - akcent 3 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - akcent 3 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - akcent 3 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - akcent 3 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - akcent 3 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - akcent 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - akcent 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - akcent 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - akcent 4 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - akcent 4 5" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - akcent 4 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - akcent 4 7" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - akcent 4 8" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - akcent 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - akcent 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - akcent 5 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - akcent 5 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="20% - akcent 5 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - akcent 5 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - akcent 5 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - akcent 5 8" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - akcent 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - akcent 6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - akcent 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="20% - akcent 6 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - akcent 6 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="20% - akcent 6 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="20% - akcent 6 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - akcent 6 8" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="40% - akcent 1" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="40% - akcent 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="40% - akcent 1 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="40% - akcent 1 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="40% - akcent 1 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - akcent 1 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - akcent 1 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="40% - akcent 1 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="40% - akcent 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - akcent 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - akcent 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="40% - akcent 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="40% - akcent 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="40% - akcent 2 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="40% - akcent 2 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="40% - akcent 2 8" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="40% - akcent 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="40% - akcent 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - akcent 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="40% - akcent 3 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - akcent 3 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - akcent 3 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40% - akcent 3 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="40% - akcent 3 8" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - akcent 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - akcent 4 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - akcent 4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - akcent 4 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - akcent 4 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - akcent 4 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - akcent 4 7" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - akcent 4 8" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - akcent 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - akcent 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - akcent 5 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - akcent 5 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - akcent 5 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - akcent 5 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - akcent 5 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - akcent 5 8" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - akcent 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - akcent 6 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - akcent 6 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - akcent 6 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="40% - akcent 6 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="40% - akcent 6 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="40% - akcent 6 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - akcent 6 8" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="60% - akcent 1" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="60% - akcent 1 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="60% - akcent 1 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="60% - akcent 1 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="60% - akcent 1 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="60% - akcent 1 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="60% - akcent 1 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="60% - akcent 1 8" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="60% - akcent 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="60% - akcent 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="60% - akcent 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="60% - akcent 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="60% - akcent 2 5" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="60% - akcent 2 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="60% - akcent 2 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="60% - akcent 2 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="60% - akcent 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="60% - akcent 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="60% - akcent 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="60% - akcent 3 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="60% - akcent 3 5" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="60% - akcent 3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="60% - akcent 3 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="60% - akcent 3 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="60% - akcent 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="60% - akcent 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="60% - akcent 4 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="60% - akcent 4 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="60% - akcent 4 5" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="60% - akcent 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="60% - akcent 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="60% - akcent 4 8" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="60% - akcent 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="60% - akcent 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="60% - akcent 5 3" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="60% - akcent 5 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="60% - akcent 5 5" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="60% - akcent 5 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="60% - akcent 5 7" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="60% - akcent 5 8" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="60% - akcent 6" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="60% - akcent 6 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="60% - akcent 6 3" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="60% - akcent 6 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="60% - akcent 6 5" xfId="141" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="60% - akcent 6 6" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="60% - akcent 6 7" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="60% - akcent 6 8" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Akcent 1" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Akcent 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Akcent 1 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Akcent 1 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Akcent 1 5" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Akcent 1 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Akcent 1 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Akcent 1 8" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Akcent 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Akcent 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Akcent 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Akcent 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="Akcent 2 5" xfId="157" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Akcent 2 6" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="Akcent 2 7" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Akcent 2 8" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Akcent 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Akcent 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Akcent 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Akcent 3 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Akcent 3 5" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Akcent 3 6" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Akcent 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Akcent 3 8" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Akcent 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Akcent 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Akcent 4 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Akcent 4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Akcent 4 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Akcent 4 6" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Akcent 4 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Akcent 4 8" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="Akcent 5" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Akcent 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Akcent 5 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Akcent 5 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Akcent 5 5" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Akcent 5 6" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Akcent 5 7" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Akcent 5 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Akcent 6" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Akcent 6 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="Akcent 6 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="Akcent 6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Akcent 6 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Akcent 6 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="Akcent 6 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="Akcent 6 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Dane wejściowe" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Dane wejściowe 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="Dane wejściowe 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Dane wejściowe 4" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Dane wejściowe 5" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Dane wejściowe 6" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="Dane wejściowe 7" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Dane wejściowe 8" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Dane wyjściowe" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Dane wyjściowe 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Dane wyjściowe 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Dane wyjściowe 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Dane wyjściowe 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="Dane wyjściowe 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Dane wyjściowe 7" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Dane wyjściowe 8" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Dobre" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Dobre 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Dobre 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Dobre 4" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Dobre 5" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Dobre 6" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="Dobre 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="Dobre 8" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Euro" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Komórka połączona" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Komórka połączona 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Komórka połączona 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Komórka połączona 4" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Komórka połączona 5" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="Komórka połączona 6" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Komórka połączona 7" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Komórka połączona 8" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Komórka zaznaczona" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="Komórka zaznaczona 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Komórka zaznaczona 3" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="Komórka zaznaczona 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="Komórka zaznaczona 5" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="Komórka zaznaczona 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="Komórka zaznaczona 7" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="Komórka zaznaczona 8" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="Nagłówek 1" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="Nagłówek 1 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Nagłówek 1 3" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="Nagłówek 1 4" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="Nagłówek 1 5" xfId="238" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="Nagłówek 1 6" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="Nagłówek 1 7" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="Nagłówek 1 8" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="Nagłówek 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="Nagłówek 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="Nagłówek 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="Nagłówek 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="Nagłówek 2 5" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="Nagłówek 2 6" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="Nagłówek 2 7" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="Nagłówek 2 8" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="Nagłówek 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="Nagłówek 3 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="Nagłówek 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="Nagłówek 3 4" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="Nagłówek 3 5" xfId="254" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="Nagłówek 3 6" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="Nagłówek 3 7" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="Nagłówek 3 8" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="Nagłówek 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="Nagłówek 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="Nagłówek 4 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="Nagłówek 4 4" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="Nagłówek 4 5" xfId="262" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="Nagłówek 4 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="Nagłówek 4 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="Nagłówek 4 8" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="Neutralne" xfId="266" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="Neutralne 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="Neutralne 3" xfId="268" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="Neutralne 4" xfId="269" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="Neutralne 5" xfId="270" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Normal 4" xfId="339" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
-    <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Normalny 5" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="Normalny 6" xfId="284" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="Normalny 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="Normalny 8" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="Normalny 9" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="Obliczenia" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Obliczenia 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="Obliczenia 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Obliczenia 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="Obliczenia 5" xfId="292" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="Obliczenia 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="Obliczenia 7" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="Obliczenia 8" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Per cent" xfId="340" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Suma" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tytuł" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Uwaga" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="325" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="326" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="327" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="328" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="329" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Złe" xfId="330" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="332" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="333" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="334" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="335" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="336" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="337" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="已访问的超链接" xfId="338" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="20% - akcent 1" xfId="1"/>
+    <cellStyle name="20% - akcent 1 2" xfId="2"/>
+    <cellStyle name="20% - akcent 1 3" xfId="3"/>
+    <cellStyle name="20% - akcent 1 4" xfId="4"/>
+    <cellStyle name="20% - akcent 1 5" xfId="5"/>
+    <cellStyle name="20% - akcent 1 6" xfId="6"/>
+    <cellStyle name="20% - akcent 1 7" xfId="7"/>
+    <cellStyle name="20% - akcent 1 8" xfId="8"/>
+    <cellStyle name="20% - akcent 2" xfId="9"/>
+    <cellStyle name="20% - akcent 2 2" xfId="10"/>
+    <cellStyle name="20% - akcent 2 3" xfId="11"/>
+    <cellStyle name="20% - akcent 2 4" xfId="12"/>
+    <cellStyle name="20% - akcent 2 5" xfId="13"/>
+    <cellStyle name="20% - akcent 2 6" xfId="14"/>
+    <cellStyle name="20% - akcent 2 7" xfId="15"/>
+    <cellStyle name="20% - akcent 2 8" xfId="16"/>
+    <cellStyle name="20% - akcent 3" xfId="17"/>
+    <cellStyle name="20% - akcent 3 2" xfId="18"/>
+    <cellStyle name="20% - akcent 3 3" xfId="19"/>
+    <cellStyle name="20% - akcent 3 4" xfId="20"/>
+    <cellStyle name="20% - akcent 3 5" xfId="21"/>
+    <cellStyle name="20% - akcent 3 6" xfId="22"/>
+    <cellStyle name="20% - akcent 3 7" xfId="23"/>
+    <cellStyle name="20% - akcent 3 8" xfId="24"/>
+    <cellStyle name="20% - akcent 4" xfId="25"/>
+    <cellStyle name="20% - akcent 4 2" xfId="26"/>
+    <cellStyle name="20% - akcent 4 3" xfId="27"/>
+    <cellStyle name="20% - akcent 4 4" xfId="28"/>
+    <cellStyle name="20% - akcent 4 5" xfId="29"/>
+    <cellStyle name="20% - akcent 4 6" xfId="30"/>
+    <cellStyle name="20% - akcent 4 7" xfId="31"/>
+    <cellStyle name="20% - akcent 4 8" xfId="32"/>
+    <cellStyle name="20% - akcent 5" xfId="33"/>
+    <cellStyle name="20% - akcent 5 2" xfId="34"/>
+    <cellStyle name="20% - akcent 5 3" xfId="35"/>
+    <cellStyle name="20% - akcent 5 4" xfId="36"/>
+    <cellStyle name="20% - akcent 5 5" xfId="37"/>
+    <cellStyle name="20% - akcent 5 6" xfId="38"/>
+    <cellStyle name="20% - akcent 5 7" xfId="39"/>
+    <cellStyle name="20% - akcent 5 8" xfId="40"/>
+    <cellStyle name="20% - akcent 6" xfId="41"/>
+    <cellStyle name="20% - akcent 6 2" xfId="42"/>
+    <cellStyle name="20% - akcent 6 3" xfId="43"/>
+    <cellStyle name="20% - akcent 6 4" xfId="44"/>
+    <cellStyle name="20% - akcent 6 5" xfId="45"/>
+    <cellStyle name="20% - akcent 6 6" xfId="46"/>
+    <cellStyle name="20% - akcent 6 7" xfId="47"/>
+    <cellStyle name="20% - akcent 6 8" xfId="48"/>
+    <cellStyle name="40% - akcent 1" xfId="49"/>
+    <cellStyle name="40% - akcent 1 2" xfId="50"/>
+    <cellStyle name="40% - akcent 1 3" xfId="51"/>
+    <cellStyle name="40% - akcent 1 4" xfId="52"/>
+    <cellStyle name="40% - akcent 1 5" xfId="53"/>
+    <cellStyle name="40% - akcent 1 6" xfId="54"/>
+    <cellStyle name="40% - akcent 1 7" xfId="55"/>
+    <cellStyle name="40% - akcent 1 8" xfId="56"/>
+    <cellStyle name="40% - akcent 2" xfId="57"/>
+    <cellStyle name="40% - akcent 2 2" xfId="58"/>
+    <cellStyle name="40% - akcent 2 3" xfId="59"/>
+    <cellStyle name="40% - akcent 2 4" xfId="60"/>
+    <cellStyle name="40% - akcent 2 5" xfId="61"/>
+    <cellStyle name="40% - akcent 2 6" xfId="62"/>
+    <cellStyle name="40% - akcent 2 7" xfId="63"/>
+    <cellStyle name="40% - akcent 2 8" xfId="64"/>
+    <cellStyle name="40% - akcent 3" xfId="65"/>
+    <cellStyle name="40% - akcent 3 2" xfId="66"/>
+    <cellStyle name="40% - akcent 3 3" xfId="67"/>
+    <cellStyle name="40% - akcent 3 4" xfId="68"/>
+    <cellStyle name="40% - akcent 3 5" xfId="69"/>
+    <cellStyle name="40% - akcent 3 6" xfId="70"/>
+    <cellStyle name="40% - akcent 3 7" xfId="71"/>
+    <cellStyle name="40% - akcent 3 8" xfId="72"/>
+    <cellStyle name="40% - akcent 4" xfId="73"/>
+    <cellStyle name="40% - akcent 4 2" xfId="74"/>
+    <cellStyle name="40% - akcent 4 3" xfId="75"/>
+    <cellStyle name="40% - akcent 4 4" xfId="76"/>
+    <cellStyle name="40% - akcent 4 5" xfId="77"/>
+    <cellStyle name="40% - akcent 4 6" xfId="78"/>
+    <cellStyle name="40% - akcent 4 7" xfId="79"/>
+    <cellStyle name="40% - akcent 4 8" xfId="80"/>
+    <cellStyle name="40% - akcent 5" xfId="81"/>
+    <cellStyle name="40% - akcent 5 2" xfId="82"/>
+    <cellStyle name="40% - akcent 5 3" xfId="83"/>
+    <cellStyle name="40% - akcent 5 4" xfId="84"/>
+    <cellStyle name="40% - akcent 5 5" xfId="85"/>
+    <cellStyle name="40% - akcent 5 6" xfId="86"/>
+    <cellStyle name="40% - akcent 5 7" xfId="87"/>
+    <cellStyle name="40% - akcent 5 8" xfId="88"/>
+    <cellStyle name="40% - akcent 6" xfId="89"/>
+    <cellStyle name="40% - akcent 6 2" xfId="90"/>
+    <cellStyle name="40% - akcent 6 3" xfId="91"/>
+    <cellStyle name="40% - akcent 6 4" xfId="92"/>
+    <cellStyle name="40% - akcent 6 5" xfId="93"/>
+    <cellStyle name="40% - akcent 6 6" xfId="94"/>
+    <cellStyle name="40% - akcent 6 7" xfId="95"/>
+    <cellStyle name="40% - akcent 6 8" xfId="96"/>
+    <cellStyle name="60% - akcent 1" xfId="97"/>
+    <cellStyle name="60% - akcent 1 2" xfId="98"/>
+    <cellStyle name="60% - akcent 1 3" xfId="99"/>
+    <cellStyle name="60% - akcent 1 4" xfId="100"/>
+    <cellStyle name="60% - akcent 1 5" xfId="101"/>
+    <cellStyle name="60% - akcent 1 6" xfId="102"/>
+    <cellStyle name="60% - akcent 1 7" xfId="103"/>
+    <cellStyle name="60% - akcent 1 8" xfId="104"/>
+    <cellStyle name="60% - akcent 2" xfId="105"/>
+    <cellStyle name="60% - akcent 2 2" xfId="106"/>
+    <cellStyle name="60% - akcent 2 3" xfId="107"/>
+    <cellStyle name="60% - akcent 2 4" xfId="108"/>
+    <cellStyle name="60% - akcent 2 5" xfId="109"/>
+    <cellStyle name="60% - akcent 2 6" xfId="110"/>
+    <cellStyle name="60% - akcent 2 7" xfId="111"/>
+    <cellStyle name="60% - akcent 2 8" xfId="112"/>
+    <cellStyle name="60% - akcent 3" xfId="113"/>
+    <cellStyle name="60% - akcent 3 2" xfId="114"/>
+    <cellStyle name="60% - akcent 3 3" xfId="115"/>
+    <cellStyle name="60% - akcent 3 4" xfId="116"/>
+    <cellStyle name="60% - akcent 3 5" xfId="117"/>
+    <cellStyle name="60% - akcent 3 6" xfId="118"/>
+    <cellStyle name="60% - akcent 3 7" xfId="119"/>
+    <cellStyle name="60% - akcent 3 8" xfId="120"/>
+    <cellStyle name="60% - akcent 4" xfId="121"/>
+    <cellStyle name="60% - akcent 4 2" xfId="122"/>
+    <cellStyle name="60% - akcent 4 3" xfId="123"/>
+    <cellStyle name="60% - akcent 4 4" xfId="124"/>
+    <cellStyle name="60% - akcent 4 5" xfId="125"/>
+    <cellStyle name="60% - akcent 4 6" xfId="126"/>
+    <cellStyle name="60% - akcent 4 7" xfId="127"/>
+    <cellStyle name="60% - akcent 4 8" xfId="128"/>
+    <cellStyle name="60% - akcent 5" xfId="129"/>
+    <cellStyle name="60% - akcent 5 2" xfId="130"/>
+    <cellStyle name="60% - akcent 5 3" xfId="131"/>
+    <cellStyle name="60% - akcent 5 4" xfId="132"/>
+    <cellStyle name="60% - akcent 5 5" xfId="133"/>
+    <cellStyle name="60% - akcent 5 6" xfId="134"/>
+    <cellStyle name="60% - akcent 5 7" xfId="135"/>
+    <cellStyle name="60% - akcent 5 8" xfId="136"/>
+    <cellStyle name="60% - akcent 6" xfId="137"/>
+    <cellStyle name="60% - akcent 6 2" xfId="138"/>
+    <cellStyle name="60% - akcent 6 3" xfId="139"/>
+    <cellStyle name="60% - akcent 6 4" xfId="140"/>
+    <cellStyle name="60% - akcent 6 5" xfId="141"/>
+    <cellStyle name="60% - akcent 6 6" xfId="142"/>
+    <cellStyle name="60% - akcent 6 7" xfId="143"/>
+    <cellStyle name="60% - akcent 6 8" xfId="144"/>
+    <cellStyle name="Akcent 1" xfId="145"/>
+    <cellStyle name="Akcent 1 2" xfId="146"/>
+    <cellStyle name="Akcent 1 3" xfId="147"/>
+    <cellStyle name="Akcent 1 4" xfId="148"/>
+    <cellStyle name="Akcent 1 5" xfId="149"/>
+    <cellStyle name="Akcent 1 6" xfId="150"/>
+    <cellStyle name="Akcent 1 7" xfId="151"/>
+    <cellStyle name="Akcent 1 8" xfId="152"/>
+    <cellStyle name="Akcent 2" xfId="153"/>
+    <cellStyle name="Akcent 2 2" xfId="154"/>
+    <cellStyle name="Akcent 2 3" xfId="155"/>
+    <cellStyle name="Akcent 2 4" xfId="156"/>
+    <cellStyle name="Akcent 2 5" xfId="157"/>
+    <cellStyle name="Akcent 2 6" xfId="158"/>
+    <cellStyle name="Akcent 2 7" xfId="159"/>
+    <cellStyle name="Akcent 2 8" xfId="160"/>
+    <cellStyle name="Akcent 3" xfId="161"/>
+    <cellStyle name="Akcent 3 2" xfId="162"/>
+    <cellStyle name="Akcent 3 3" xfId="163"/>
+    <cellStyle name="Akcent 3 4" xfId="164"/>
+    <cellStyle name="Akcent 3 5" xfId="165"/>
+    <cellStyle name="Akcent 3 6" xfId="166"/>
+    <cellStyle name="Akcent 3 7" xfId="167"/>
+    <cellStyle name="Akcent 3 8" xfId="168"/>
+    <cellStyle name="Akcent 4" xfId="169"/>
+    <cellStyle name="Akcent 4 2" xfId="170"/>
+    <cellStyle name="Akcent 4 3" xfId="171"/>
+    <cellStyle name="Akcent 4 4" xfId="172"/>
+    <cellStyle name="Akcent 4 5" xfId="173"/>
+    <cellStyle name="Akcent 4 6" xfId="174"/>
+    <cellStyle name="Akcent 4 7" xfId="175"/>
+    <cellStyle name="Akcent 4 8" xfId="176"/>
+    <cellStyle name="Akcent 5" xfId="177"/>
+    <cellStyle name="Akcent 5 2" xfId="178"/>
+    <cellStyle name="Akcent 5 3" xfId="179"/>
+    <cellStyle name="Akcent 5 4" xfId="180"/>
+    <cellStyle name="Akcent 5 5" xfId="181"/>
+    <cellStyle name="Akcent 5 6" xfId="182"/>
+    <cellStyle name="Akcent 5 7" xfId="183"/>
+    <cellStyle name="Akcent 5 8" xfId="184"/>
+    <cellStyle name="Akcent 6" xfId="185"/>
+    <cellStyle name="Akcent 6 2" xfId="186"/>
+    <cellStyle name="Akcent 6 3" xfId="187"/>
+    <cellStyle name="Akcent 6 4" xfId="188"/>
+    <cellStyle name="Akcent 6 5" xfId="189"/>
+    <cellStyle name="Akcent 6 6" xfId="190"/>
+    <cellStyle name="Akcent 6 7" xfId="191"/>
+    <cellStyle name="Akcent 6 8" xfId="192"/>
+    <cellStyle name="Dane wejściowe" xfId="193"/>
+    <cellStyle name="Dane wejściowe 2" xfId="194"/>
+    <cellStyle name="Dane wejściowe 3" xfId="195"/>
+    <cellStyle name="Dane wejściowe 4" xfId="196"/>
+    <cellStyle name="Dane wejściowe 5" xfId="197"/>
+    <cellStyle name="Dane wejściowe 6" xfId="198"/>
+    <cellStyle name="Dane wejściowe 7" xfId="199"/>
+    <cellStyle name="Dane wejściowe 8" xfId="200"/>
+    <cellStyle name="Dane wyjściowe" xfId="201"/>
+    <cellStyle name="Dane wyjściowe 2" xfId="202"/>
+    <cellStyle name="Dane wyjściowe 3" xfId="203"/>
+    <cellStyle name="Dane wyjściowe 4" xfId="204"/>
+    <cellStyle name="Dane wyjściowe 5" xfId="205"/>
+    <cellStyle name="Dane wyjściowe 6" xfId="206"/>
+    <cellStyle name="Dane wyjściowe 7" xfId="207"/>
+    <cellStyle name="Dane wyjściowe 8" xfId="208"/>
+    <cellStyle name="Dobre" xfId="209"/>
+    <cellStyle name="Dobre 2" xfId="210"/>
+    <cellStyle name="Dobre 3" xfId="211"/>
+    <cellStyle name="Dobre 4" xfId="212"/>
+    <cellStyle name="Dobre 5" xfId="213"/>
+    <cellStyle name="Dobre 6" xfId="214"/>
+    <cellStyle name="Dobre 7" xfId="215"/>
+    <cellStyle name="Dobre 8" xfId="216"/>
+    <cellStyle name="Euro" xfId="217"/>
+    <cellStyle name="Komórka połączona" xfId="218"/>
+    <cellStyle name="Komórka połączona 2" xfId="219"/>
+    <cellStyle name="Komórka połączona 3" xfId="220"/>
+    <cellStyle name="Komórka połączona 4" xfId="221"/>
+    <cellStyle name="Komórka połączona 5" xfId="222"/>
+    <cellStyle name="Komórka połączona 6" xfId="223"/>
+    <cellStyle name="Komórka połączona 7" xfId="224"/>
+    <cellStyle name="Komórka połączona 8" xfId="225"/>
+    <cellStyle name="Komórka zaznaczona" xfId="226"/>
+    <cellStyle name="Komórka zaznaczona 2" xfId="227"/>
+    <cellStyle name="Komórka zaznaczona 3" xfId="228"/>
+    <cellStyle name="Komórka zaznaczona 4" xfId="229"/>
+    <cellStyle name="Komórka zaznaczona 5" xfId="230"/>
+    <cellStyle name="Komórka zaznaczona 6" xfId="231"/>
+    <cellStyle name="Komórka zaznaczona 7" xfId="232"/>
+    <cellStyle name="Komórka zaznaczona 8" xfId="233"/>
+    <cellStyle name="Nagłówek 1" xfId="234"/>
+    <cellStyle name="Nagłówek 1 2" xfId="235"/>
+    <cellStyle name="Nagłówek 1 3" xfId="236"/>
+    <cellStyle name="Nagłówek 1 4" xfId="237"/>
+    <cellStyle name="Nagłówek 1 5" xfId="238"/>
+    <cellStyle name="Nagłówek 1 6" xfId="239"/>
+    <cellStyle name="Nagłówek 1 7" xfId="240"/>
+    <cellStyle name="Nagłówek 1 8" xfId="241"/>
+    <cellStyle name="Nagłówek 2" xfId="242"/>
+    <cellStyle name="Nagłówek 2 2" xfId="243"/>
+    <cellStyle name="Nagłówek 2 3" xfId="244"/>
+    <cellStyle name="Nagłówek 2 4" xfId="245"/>
+    <cellStyle name="Nagłówek 2 5" xfId="246"/>
+    <cellStyle name="Nagłówek 2 6" xfId="247"/>
+    <cellStyle name="Nagłówek 2 7" xfId="248"/>
+    <cellStyle name="Nagłówek 2 8" xfId="249"/>
+    <cellStyle name="Nagłówek 3" xfId="250"/>
+    <cellStyle name="Nagłówek 3 2" xfId="251"/>
+    <cellStyle name="Nagłówek 3 3" xfId="252"/>
+    <cellStyle name="Nagłówek 3 4" xfId="253"/>
+    <cellStyle name="Nagłówek 3 5" xfId="254"/>
+    <cellStyle name="Nagłówek 3 6" xfId="255"/>
+    <cellStyle name="Nagłówek 3 7" xfId="256"/>
+    <cellStyle name="Nagłówek 3 8" xfId="257"/>
+    <cellStyle name="Nagłówek 4" xfId="258"/>
+    <cellStyle name="Nagłówek 4 2" xfId="259"/>
+    <cellStyle name="Nagłówek 4 3" xfId="260"/>
+    <cellStyle name="Nagłówek 4 4" xfId="261"/>
+    <cellStyle name="Nagłówek 4 5" xfId="262"/>
+    <cellStyle name="Nagłówek 4 6" xfId="263"/>
+    <cellStyle name="Nagłówek 4 7" xfId="264"/>
+    <cellStyle name="Nagłówek 4 8" xfId="265"/>
+    <cellStyle name="Neutralne" xfId="266"/>
+    <cellStyle name="Neutralne 2" xfId="267"/>
+    <cellStyle name="Neutralne 3" xfId="268"/>
+    <cellStyle name="Neutralne 4" xfId="269"/>
+    <cellStyle name="Neutralne 5" xfId="270"/>
+    <cellStyle name="Neutralne 6" xfId="271"/>
+    <cellStyle name="Neutralne 7" xfId="272"/>
+    <cellStyle name="Neutralne 8" xfId="273"/>
+    <cellStyle name="Normal 10" xfId="274"/>
+    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 3" xfId="276"/>
+    <cellStyle name="Normal 4" xfId="339"/>
+    <cellStyle name="Normal_MIN" xfId="277"/>
+    <cellStyle name="Normal_PRC" xfId="278"/>
+    <cellStyle name="Normale_B2020" xfId="279"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="280"/>
+    <cellStyle name="Normalny 3" xfId="281"/>
+    <cellStyle name="Normalny 4" xfId="282"/>
+    <cellStyle name="Normalny 5" xfId="283"/>
+    <cellStyle name="Normalny 6" xfId="284"/>
+    <cellStyle name="Normalny 7" xfId="285"/>
+    <cellStyle name="Normalny 8" xfId="286"/>
+    <cellStyle name="Normalny 9" xfId="287"/>
+    <cellStyle name="Obliczenia" xfId="288"/>
+    <cellStyle name="Obliczenia 2" xfId="289"/>
+    <cellStyle name="Obliczenia 3" xfId="290"/>
+    <cellStyle name="Obliczenia 4" xfId="291"/>
+    <cellStyle name="Obliczenia 5" xfId="292"/>
+    <cellStyle name="Obliczenia 6" xfId="293"/>
+    <cellStyle name="Obliczenia 7" xfId="294"/>
+    <cellStyle name="Obliczenia 8" xfId="295"/>
+    <cellStyle name="Procentowy" xfId="340" builtinId="5"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="296"/>
+    <cellStyle name="Suma" xfId="297"/>
+    <cellStyle name="Suma 2" xfId="298"/>
+    <cellStyle name="Suma 3" xfId="299"/>
+    <cellStyle name="Suma 4" xfId="300"/>
+    <cellStyle name="Suma 5" xfId="301"/>
+    <cellStyle name="Suma 6" xfId="302"/>
+    <cellStyle name="Suma 7" xfId="303"/>
+    <cellStyle name="Suma 8" xfId="304"/>
+    <cellStyle name="Tekst objaśnienia" xfId="305"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="306"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="307"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="308"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="309"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="310"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="311"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="312"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="313"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="314"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="315"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="316"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="317"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="318"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="319"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="320"/>
+    <cellStyle name="Tytuł" xfId="321"/>
+    <cellStyle name="Uwaga" xfId="322"/>
+    <cellStyle name="Uwaga 2" xfId="323"/>
+    <cellStyle name="Uwaga 3" xfId="324"/>
+    <cellStyle name="Uwaga 4" xfId="325"/>
+    <cellStyle name="Uwaga 5" xfId="326"/>
+    <cellStyle name="Uwaga 6" xfId="327"/>
+    <cellStyle name="Uwaga 7" xfId="328"/>
+    <cellStyle name="Uwaga 8" xfId="329"/>
+    <cellStyle name="Złe" xfId="330"/>
+    <cellStyle name="Złe 2" xfId="331"/>
+    <cellStyle name="Złe 3" xfId="332"/>
+    <cellStyle name="Złe 4" xfId="333"/>
+    <cellStyle name="Złe 5" xfId="334"/>
+    <cellStyle name="Złe 6" xfId="335"/>
+    <cellStyle name="Złe 7" xfId="336"/>
+    <cellStyle name="Złe 8" xfId="337"/>
+    <cellStyle name="已访问的超链接" xfId="338"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3277,7 +3288,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3752,12 +3763,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3798,7 +3809,7 @@
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
       <c r="J3" s="83"/>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="117" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3815,7 +3826,7 @@
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="86"/>
-      <c r="K4" s="105"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="84"/>
@@ -3844,7 +3855,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="86"/>
-      <c r="K5" s="105"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
       <c r="A6" s="84"/>
@@ -3873,7 +3884,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="86"/>
-      <c r="K6" s="105"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="84"/>
@@ -3884,7 +3895,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="96" t="s">
         <v>100</v>
@@ -3896,7 +3907,7 @@
       <c r="H7" s="95"/>
       <c r="I7" s="95"/>
       <c r="J7" s="86"/>
-      <c r="K7" s="105"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="84"/>
@@ -3904,10 +3915,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="77" t="s">
         <v>100</v>
@@ -3919,7 +3930,7 @@
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
       <c r="J8" s="86"/>
-      <c r="K8" s="105"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="84"/>
@@ -3927,10 +3938,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="100" t="s">
         <v>100</v>
@@ -3942,7 +3953,7 @@
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
       <c r="J9" s="86"/>
-      <c r="K9" s="105"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="84"/>
@@ -3950,20 +3961,20 @@
         <v>27</v>
       </c>
       <c r="C10" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="97" t="s">
         <v>144</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>146</v>
       </c>
       <c r="F10" s="97"/>
       <c r="G10" s="97"/>
       <c r="H10" s="97"/>
       <c r="I10" s="97"/>
       <c r="J10" s="86"/>
-      <c r="K10" s="105"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A11" s="84"/>
@@ -3976,7 +3987,7 @@
       <c r="H11" s="103"/>
       <c r="I11" s="103"/>
       <c r="J11" s="86"/>
-      <c r="K11" s="105"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="87"/>
@@ -3989,25 +4000,25 @@
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
       <c r="J12" s="89"/>
-      <c r="K12" s="105"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
@@ -4018,7 +4029,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
@@ -4029,7 +4040,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -4040,7 +4051,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -4051,7 +4062,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.8" thickBot="1">
@@ -4062,7 +4073,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4079,10 +4090,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -4152,11 +4163,11 @@
       <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
+      <c r="M5" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" customHeight="1" thickBot="1">
       <c r="B6" s="37" t="s">
@@ -4187,13 +4198,13 @@
         <v>59</v>
       </c>
       <c r="M6" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="94" t="s">
         <v>124</v>
-      </c>
-      <c r="N6" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="94" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1">
@@ -4202,16 +4213,16 @@
       </c>
       <c r="C7" s="95"/>
       <c r="D7" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="96" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>114</v>
       </c>
       <c r="F7" s="95" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H7" s="95" t="s">
         <v>101</v>
@@ -4232,10 +4243,10 @@
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="98" t="s">
         <v>111</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>112</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>100</v>
@@ -4262,16 +4273,16 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="78" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>102</v>
@@ -4397,11 +4408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B21" sqref="B20:B21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4536,7 +4547,7 @@
         <v>72</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>73</v>
@@ -4561,10 +4572,10 @@
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="90" t="s">
         <v>108</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>109</v>
       </c>
       <c r="G7" s="14"/>
       <c r="K7" s="5"/>
@@ -4592,7 +4603,7 @@
         <v>BROWN_COAL</v>
       </c>
       <c r="E8" s="17">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F8" s="16">
         <v>700</v>
@@ -4642,11 +4653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4662,7 +4673,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999">
       <c r="B2" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -4708,7 +4719,7 @@
       <c r="E5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="105" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="63" t="s">
@@ -4740,7 +4751,7 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="106" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="92" t="s">
@@ -4759,30 +4770,30 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="27" thickBot="1">
+    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1">
       <c r="B7" s="90" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="107" t="s">
         <v>104</v>
       </c>
       <c r="G7" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="I7" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="K7" s="93" t="s">
         <v>120</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -4799,13 +4810,13 @@
         <v>BROWN_COAL</v>
       </c>
       <c r="E8" s="65" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>DEM_ELEC_HV</v>
-      </c>
-      <c r="F8" s="112">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F8" s="108">
         <v>5.3</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="104">
         <v>0.34</v>
       </c>
       <c r="H8" s="67">
@@ -4826,7 +4837,7 @@
       <c r="C9" s="68"/>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
-      <c r="F9" s="113"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="70"/>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -4834,26 +4845,83 @@
       <c r="K9" s="72"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="115" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="B11" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="91"/>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="91"/>
+      <c r="F15">
+        <f>F8*H8</f>
+        <v>167.14080000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="F16">
+        <f>F8*H8*I8</f>
+        <v>142.06968000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18">
+        <f>24*365</f>
+        <v>8760</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19">
+        <f>H17*H18</f>
+        <v>8760</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20">
+        <f>H19*3.6</f>
+        <v>31536</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21">
+        <f>H20/1000</f>
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I21" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4867,11 +4935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4885,7 +4953,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="17.399999999999999">
       <c r="B2" s="73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -5051,11 +5119,11 @@
       <c r="B17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="45" t="str">
@@ -5085,10 +5153,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5129,19 +5197,19 @@
       <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="118" t="str">
+      <c r="D5" s="111" t="str">
         <f>SEC_Comm!C10</f>
         <v>ENV_CO2</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="110" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5152,11 +5220,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="D6" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="45" t="str">
@@ -5167,37 +5235,37 @@
         <f>SEC_Comm!C10</f>
         <v>ENV_CO2</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="112">
         <v>110</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="47"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
     </row>
     <row r="11" spans="2:10" ht="13.8" thickBot="1">
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="124"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
     </row>
@@ -5210,21 +5278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -5401,13 +5454,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5421,5 +5497,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -4936,10 +4936,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4951,7 +4951,7 @@
     <col min="6" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.399999999999999">
+    <row r="2" spans="2:10" ht="17.399999999999999">
       <c r="B2" s="73" t="s">
         <v>127</v>
       </c>
@@ -4960,32 +4960,29 @@
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="E4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="2:11">
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
@@ -4998,24 +4995,23 @@
       <c r="E5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="63" t="s">
+        <v>82</v>
+      </c>
       <c r="G5" s="63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -5028,24 +5024,23 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="64" t="s">
+        <v>90</v>
+      </c>
       <c r="G6" s="64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:10">
       <c r="B7" s="45" t="str">
         <f>SEC_Processes!D9</f>
         <v>DEM_ELECTRICITY</v>
@@ -5062,30 +5057,28 @@
         <f>SEC_Comm!C9</f>
         <v>DEM_ELEC_HV</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="104">
+      <c r="F7" s="104">
         <v>1</v>
       </c>
-      <c r="H7" s="67">
+      <c r="G7" s="67">
         <v>1</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.8" thickBot="1">
+      <c r="H7" s="67"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="2:10" ht="13.8" thickBot="1">
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="10" spans="2:11" ht="17.399999999999999">
+    </row>
+    <row r="10" spans="2:10" ht="17.399999999999999">
       <c r="B10" s="73" t="s">
         <v>97</v>
       </c>
@@ -5094,14 +5087,13 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="15" spans="2:11">
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:10">
       <c r="B16" s="61" t="s">
         <v>2</v>
       </c>
@@ -5455,18 +5447,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5489,26 +5481,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
-    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>